--- a/data/trans_orig/DESPLA_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_TIEMPO-Estudios-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,69 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -126,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,65 +460,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo medio para desplazarse al trabajo en minutos (tasa de respuesta: 91,11%)</t>
+          <t>Tiempo medio para desplazarse al trabajo en minutos (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -589,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>36,98</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>12,15</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>41,45</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,94</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>38,65</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,78</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>39.61907358744062</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>12.14612694903636</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>42.75427292636454</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>5.941949290165127</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>40.85906424302701</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>8.776580314073319</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>29,16; 57,33</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>8,09; 19,04</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>34,78; 49,92</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,72; 10,32</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>33,22; 50,62</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6,3; 12,68</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>30.87165668088849</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>8.089024091724481</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>35.41165164654242</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>3.716726376833614</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>34.54391486414628</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>6.295508818413993</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>70.32750954974347</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>19.04075510365063</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>51.68959107201242</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>10.3240746532937</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>53.88908497101599</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>12.67610058908454</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>38,11</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>33,23</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>32,94</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>32,52</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>35,82</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>32,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>35,66; 40,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>30,42; 36,65</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>30,86; 35,16</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>29,24; 36,19</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>34,32; 37,5</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>30,64; 35,29</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>38.89277752588946</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>33.23183691741641</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>33.72231674732154</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>32.5218885727807</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>36.56110295751382</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>32.87820764713507</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>36.34683085604035</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>30.4161335622941</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>31.48318854941553</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>29.23704827605926</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>34.75369912003923</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>30.64285878392371</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>41.44674415913832</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>36.64999936331733</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>36.3019704594394</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>36.19248641616144</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>38.44915188171497</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>35.28692393808233</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>31,38</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>41,44</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>33,97</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>43,86</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>32,71</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>42,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>28,37; 36,09</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>37,91; 45,23</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>30,79; 38,72</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>40,46; 47,51</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>30,09; 35,27</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>40,39; 45,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>31.55573503715857</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>41.43708211547109</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>32.61320895036907</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>43.86270646611813</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>32.08908326420666</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>42.80090550240174</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>28.28086300785948</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>37.90878225929401</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>29.45429904414009</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>40.46461798213418</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>29.80349447900885</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>40.38618580497028</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>36.04081089427073</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>45.23171882297773</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>36.63379347343057</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>47.51079965099103</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>35.00591516329212</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>45.80233385869117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>36,11</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>32,88</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>33,7</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>32,72</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>34,99</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>32,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>34,2; 38,2</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>30,66; 35,14</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>32,01; 35,7</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>30,37; 35,26</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>33,61; 36,36</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>31,14; 34,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>36.6544420066292</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>32.87951367518195</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>33.71334303229788</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>32.71877192429718</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>35.28389026840404</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>32.79470071911757</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>34.57592244090697</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>30.65907405291902</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>31.93612844384628</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>30.37413475049255</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>33.78414543336824</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>31.14396932085265</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>39.10423700103815</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>35.14049496484235</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>35.77752867995666</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>35.26407944186239</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>36.66617687060003</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>34.520646710187</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -917,14 +864,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
